--- a/Prac2/resultats.xlsx
+++ b/Prac2/resultats.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="38">
   <si>
     <t>Not taken</t>
   </si>
@@ -68,10 +68,6 @@
 tabla de prediccion de 2-bits saturados PHT)</t>
   </si>
   <si>
-    <t>Pag (en funció de # de salts emmagatzemats a BHR i # de entradas de la
-tabla de prediccion de 2-bits saturados PHT)</t>
-  </si>
-  <si>
     <t>8-8</t>
   </si>
   <si>
@@ -104,6 +100,49 @@
   <si>
     <t>Results/vpr,txt</t>
   </si>
+  <si>
+    <t>anci</t>
+  </si>
+  <si>
+    <t>Pag (en funció de # de BHR (BHT) i # d'entrades de la
+taula de prediccioó de 2-bits saturados PHT)</t>
+  </si>
+  <si>
+    <t>Resum</t>
+  </si>
+  <si>
+    <t>no taken</t>
+  </si>
+  <si>
+    <t>bimodal</t>
+  </si>
+  <si>
+    <t>G-Share</t>
+  </si>
+  <si>
+    <t>Gag</t>
+  </si>
+  <si>
+    <t>Pag</t>
+  </si>
+  <si>
+    <t>16 (8-8)</t>
+  </si>
+  <si>
+    <t>64 (16-32)</t>
+  </si>
+  <si>
+    <t>256 (32-128)</t>
+  </si>
+  <si>
+    <t>1024 (64-512)</t>
+  </si>
+  <si>
+    <t>4096 (128-2048)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
@@ -117,8 +156,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -137,35 +177,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,11 +785,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="267590720"/>
-        <c:axId val="267591280"/>
+        <c:axId val="212854912"/>
+        <c:axId val="212855472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="267590720"/>
+        <c:axId val="212854912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -562,7 +888,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267591280"/>
+        <c:crossAx val="212855472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -570,7 +896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="267591280"/>
+        <c:axId val="212855472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +1003,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267590720"/>
+        <c:crossAx val="212854912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1265,11 +1591,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="269490736"/>
-        <c:axId val="269491296"/>
+        <c:axId val="215736336"/>
+        <c:axId val="215736896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="269490736"/>
+        <c:axId val="215736336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,7 +1709,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269491296"/>
+        <c:crossAx val="215736896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1391,7 +1717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269491296"/>
+        <c:axId val="215736896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,9 +1824,1846 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269490736"/>
+        <c:crossAx val="215736336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13172003499562554"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.67860870516185479"/>
+          <c:h val="0.74350320793234181"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>taken</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>resultats!$E$80:$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16 (8-8)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64 (16-32)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (32-128)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024 (64-512)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096 (128-2048)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>resultats!$E$81:$I$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.82510000000000017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82510000000000017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82510000000000017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82510000000000017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82510000000000017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>nottaken</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>resultats!$E$80:$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16 (8-8)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64 (16-32)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (32-128)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024 (64-512)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096 (128-2048)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>resultats!$E$83:$I$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.81540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81540000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>perfect</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>resultats!$E$80:$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16 (8-8)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64 (16-32)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (32-128)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024 (64-512)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096 (128-2048)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>resultats!$E$85:$I$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.6650800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6650800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6650800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6650800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6650800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>bimodal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>resultats!$E$80:$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16 (8-8)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64 (16-32)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (32-128)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024 (64-512)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096 (128-2048)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>resultats!$E$87:$I$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.28674</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3476600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4300799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4432800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4505199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>G-Share</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>resultats!$E$80:$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16 (8-8)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64 (16-32)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (32-128)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024 (64-512)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096 (128-2048)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>resultats!$E$89:$I$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3619799999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4558799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5425599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5981799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Gag</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>resultats!$E$80:$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16 (8-8)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64 (16-32)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (32-128)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024 (64-512)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096 (128-2048)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>resultats!$E$91:$I$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.2942399999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3113199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3446200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.36392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3767799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Pag</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>resultats!$E$80:$J$80</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16 (8-8)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64 (16-32)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (32-128)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024 (64-512)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096 (128-2048)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64-4096</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>resultats!$E$93:$J$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.3122399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.34754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4098199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4679800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5031399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="251996032"/>
+        <c:axId val="251994352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="251996032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Entradas del PHT</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251994352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="251994352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>IPC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251996032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13172003499562554"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.67860870516185479"/>
+          <c:h val="0.74350320793234181"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>taken</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>resultats!$E$80:$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16 (8-8)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64 (16-32)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (32-128)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024 (64-512)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096 (128-2048)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>resultats!$E$82:$I$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.31789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31789999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>nottaken</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>resultats!$E$80:$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16 (8-8)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64 (16-32)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (32-128)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024 (64-512)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096 (128-2048)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>resultats!$E$84:$I$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.31789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31789999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>perfect</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>resultats!$E$80:$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16 (8-8)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64 (16-32)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (32-128)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024 (64-512)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096 (128-2048)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>resultats!$E$86:$I$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>bimodal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>resultats!$E$80:$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16 (8-8)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64 (16-32)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (32-128)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024 (64-512)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096 (128-2048)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>resultats!$E$88:$I$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.77961999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83086000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88450000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90276000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91107999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>G-Share</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>resultats!$E$80:$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16 (8-8)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64 (16-32)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (32-128)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024 (64-512)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096 (128-2048)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>resultats!$E$90:$I$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.76601999999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81108000000000013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92113999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95507999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Gag</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>resultats!$E$80:$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16 (8-8)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64 (16-32)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (32-128)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024 (64-512)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096 (128-2048)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>resultats!$E$92:$I$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.75951999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78393999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81220000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83198000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84437999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Pag</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>resultats!$E$80:$J$80</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16 (8-8)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64 (16-32)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (32-128)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024 (64-512)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096 (128-2048)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64-4096</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>resultats!$E$94:$J$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.77214000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84840000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88795999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92032000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90724000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="319365904"/>
+        <c:axId val="365868224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="319365904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Entradas del PHT</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365868224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="365868224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>% encert</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="319365904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1854,11 +4017,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="267596880"/>
-        <c:axId val="267597440"/>
+        <c:axId val="212861072"/>
+        <c:axId val="212861632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="267596880"/>
+        <c:axId val="212861072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +4120,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267597440"/>
+        <c:crossAx val="212861632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1965,7 +4128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="267597440"/>
+        <c:axId val="212861632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2072,7 +4235,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267596880"/>
+        <c:crossAx val="212861072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2510,11 +4673,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="269056480"/>
-        <c:axId val="269057040"/>
+        <c:axId val="215357280"/>
+        <c:axId val="215357840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="269056480"/>
+        <c:axId val="215357280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,7 +4776,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269057040"/>
+        <c:crossAx val="215357840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2621,7 +4784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269057040"/>
+        <c:axId val="215357840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,7 +4891,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269056480"/>
+        <c:crossAx val="215357280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3166,11 +5329,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="269062640"/>
-        <c:axId val="269063200"/>
+        <c:axId val="215363440"/>
+        <c:axId val="215364000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="269062640"/>
+        <c:axId val="215363440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3269,7 +5432,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269063200"/>
+        <c:crossAx val="215364000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3277,7 +5440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269063200"/>
+        <c:axId val="215364000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3384,7 +5547,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269062640"/>
+        <c:crossAx val="215363440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3822,11 +5985,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="269068800"/>
-        <c:axId val="269069360"/>
+        <c:axId val="215369600"/>
+        <c:axId val="215370160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="269068800"/>
+        <c:axId val="215369600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3932,7 +6095,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269069360"/>
+        <c:crossAx val="215370160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3940,7 +6103,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269069360"/>
+        <c:axId val="215370160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4047,7 +6210,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269068800"/>
+        <c:crossAx val="215369600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4485,11 +6648,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="269375744"/>
-        <c:axId val="269376304"/>
+        <c:axId val="215097360"/>
+        <c:axId val="215097920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="269375744"/>
+        <c:axId val="215097360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4595,7 +6758,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269376304"/>
+        <c:crossAx val="215097920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4603,7 +6766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269376304"/>
+        <c:axId val="215097920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4710,7 +6873,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269375744"/>
+        <c:crossAx val="215097360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5148,11 +7311,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="269381904"/>
-        <c:axId val="269382464"/>
+        <c:axId val="215103520"/>
+        <c:axId val="215104080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="269381904"/>
+        <c:axId val="215103520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5258,7 +7421,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269382464"/>
+        <c:crossAx val="215104080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5266,7 +7429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269382464"/>
+        <c:axId val="215104080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5373,7 +7536,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269381904"/>
+        <c:crossAx val="215103520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5811,11 +7974,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="269388064"/>
-        <c:axId val="269388624"/>
+        <c:axId val="215724016"/>
+        <c:axId val="215724576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="269388064"/>
+        <c:axId val="215724016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5921,7 +8084,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269388624"/>
+        <c:crossAx val="215724576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5929,7 +8092,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269388624"/>
+        <c:axId val="215724576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6036,7 +8199,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269388064"/>
+        <c:crossAx val="215724016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6624,11 +8787,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="269484576"/>
-        <c:axId val="269485136"/>
+        <c:axId val="215730176"/>
+        <c:axId val="215730736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="269484576"/>
+        <c:axId val="215730176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6742,7 +8905,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269485136"/>
+        <c:crossAx val="215730736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6750,7 +8913,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269485136"/>
+        <c:axId val="215730736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6857,7 +9020,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269484576"/>
+        <c:crossAx val="215730176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6979,6 +9142,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8344,6 +10587,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -12529,15 +15804,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12686,6 +15961,68 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>104781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>28581</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Gráfico 18"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12952,26 +16289,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.28515625"/>
-    <col min="2" max="1025" width="11.5703125"/>
+    <col min="2" max="7" width="11.5703125"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E1" t="s">
+    <row r="1" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12979,37 +16321,37 @@
       <c r="A2">
         <v>2.0756999999999999</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="27">
         <v>0.95889999999999997</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="27">
         <v>0.95950000000000002</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="19">
         <v>2.0756999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="27">
         <v>0.1714</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="27">
         <v>0.1714</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="19">
         <v>1</v>
       </c>
     </row>
@@ -13017,37 +16359,37 @@
       <c r="A4">
         <v>1.105</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="28">
         <v>0.70709999999999995</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="28">
         <v>0.71460000000000001</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="22">
         <v>1.105</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="29">
         <v>0.31469999999999998</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="29">
         <v>0.31469999999999998</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="25">
         <v>1</v>
       </c>
     </row>
@@ -13055,37 +16397,37 @@
       <c r="A6">
         <v>2.1337999999999999</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="27">
         <v>0.89829999999999999</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="27">
         <v>0.91400000000000003</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="19">
         <v>2.1337999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="27">
         <v>0.31669999999999998</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="27">
         <v>0.31669999999999998</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="19">
         <v>1</v>
       </c>
     </row>
@@ -13093,37 +16435,37 @@
       <c r="A8">
         <v>1.1677</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="28">
         <v>0.75629999999999997</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="28">
         <v>0.76749999999999996</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="22">
         <v>1.1677</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="29">
         <v>0.36670000000000003</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="29">
         <v>0.36670000000000003</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="25">
         <v>1</v>
       </c>
     </row>
@@ -13131,101 +16473,106 @@
       <c r="A10">
         <v>1.8431999999999999</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="28">
         <v>0.75639999999999996</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="28">
         <v>0.76990000000000003</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="22">
         <v>1.8431999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="6"/>
-      <c r="D11" s="2" t="s">
+    <row r="11" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="12"/>
+      <c r="D11" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="29">
         <v>0.42</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="29">
         <v>0.42</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="27">
         <f>SUM(E2,E4,E6,E8,E10)/5</f>
         <v>0.81540000000000001</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="27">
         <f t="shared" ref="F12:G12" si="0">SUM(F2,F4,F6,F8,F10)/5</f>
         <v>0.82510000000000017</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="19">
         <f t="shared" si="0"/>
         <v>1.6650800000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="7"/>
-      <c r="D13" s="2" t="s">
+    <row r="13" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="14"/>
+      <c r="D13" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="29">
         <f>SUM(E3,E5,E7,E9,E11)/5</f>
         <v>0.31789999999999996</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="29">
         <f>SUM(F3,F5,F7,F9,F11)/5</f>
         <v>0.31789999999999996</v>
       </c>
-      <c r="G13">
-        <f t="shared" ref="F13:G13" si="1">SUM(G3,G5,G7,G9,G11)/5</f>
+      <c r="G13" s="25">
+        <f t="shared" ref="G13" si="1">SUM(G3,G5,G7,G9,G11)/5</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="8" t="s">
+    <row r="14" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" ht="23.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.6678999999999999</v>
       </c>
-      <c r="E16">
+      <c r="C16" s="2"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37">
         <v>16</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="26">
         <v>64</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="15">
         <v>256</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="26">
         <v>1024</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="16">
         <v>4096</v>
       </c>
     </row>
@@ -13233,49 +16580,49 @@
       <c r="A17">
         <v>0.83150000000000002</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="18">
         <v>1.6678999999999999</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="27">
         <v>1.6678999999999999</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="18">
         <v>1.6678999999999999</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="27">
         <v>1.6678999999999999</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="19">
         <v>1.6678999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.0397000000000001</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="18">
         <v>0.83150000000000002</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="27">
         <v>0.83150000000000002</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="18">
         <v>0.83150000000000002</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="27">
         <v>0.83150000000000002</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="19">
         <v>0.83150000000000002</v>
       </c>
     </row>
@@ -13283,49 +16630,49 @@
       <c r="A19">
         <v>0.91469999999999996</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="21">
         <v>0.91190000000000004</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="28">
         <v>0.95150000000000001</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="21">
         <v>1.0079</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="28">
         <v>1.0397000000000001</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="22">
         <v>1.0509999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2.0185</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="24">
         <v>0.73019999999999996</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="29">
         <v>0.78990000000000005</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="24">
         <v>0.87070000000000003</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="29">
         <v>0.91469999999999996</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="25">
         <v>0.93079999999999996</v>
       </c>
     </row>
@@ -13333,49 +16680,49 @@
       <c r="A21">
         <v>0.96719999999999995</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="18">
         <v>1.6188</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="27">
         <v>1.7421</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="18">
         <v>1.9402999999999999</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="27">
         <v>2.0185</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="19">
         <v>2.0291000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.1272</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="18">
         <v>0.79730000000000001</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="27">
         <v>0.86160000000000003</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="18">
         <v>0.94220000000000004</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="27">
         <v>0.96719999999999995</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="19">
         <v>0.97170000000000001</v>
       </c>
     </row>
@@ -13383,49 +16730,49 @@
       <c r="A23">
         <v>0.93789999999999996</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="21">
         <v>0.97850000000000004</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="28">
         <v>1.0129999999999999</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="21">
         <v>1.0952999999999999</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="28">
         <v>1.1272</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="22">
         <v>1.1425000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.3631</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="24">
         <v>0.73699999999999999</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="29">
         <v>0.8125</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="24">
         <v>0.89049999999999996</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="29">
         <v>0.93789999999999996</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="25">
         <v>0.95879999999999999</v>
       </c>
     </row>
@@ -13433,1056 +16780,1566 @@
       <c r="A25">
         <v>0.86250000000000004</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="18">
         <v>1.2565999999999999</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="27">
         <v>1.3637999999999999</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="18">
         <v>1.4390000000000001</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="27">
         <v>1.3631</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="19">
         <v>1.3621000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C26" s="6"/>
-      <c r="D26" s="2" t="s">
+    <row r="26" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="7"/>
+      <c r="D26" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="18">
         <v>0.80210000000000004</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="27">
         <v>0.85880000000000001</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="18">
         <v>0.88759999999999994</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="27">
         <v>0.86250000000000004</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="19">
         <v>0.86260000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="21">
         <f>SUM(E25,E23,E21,E19,E17)/5</f>
         <v>1.28674</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="28">
         <f t="shared" ref="F27:I27" si="2">SUM(F25,F23,F21,F19,F17)/5</f>
         <v>1.3476600000000001</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="21">
         <f t="shared" si="2"/>
         <v>1.4300799999999998</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="28">
         <f t="shared" si="2"/>
         <v>1.4432800000000001</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="22">
         <f t="shared" si="2"/>
         <v>1.4505199999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="7"/>
-      <c r="D28" s="2" t="s">
+    <row r="28" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="8"/>
+      <c r="D28" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="24">
         <f>SUM(E26,E24,E22,E20,E18)/5</f>
         <v>0.77961999999999998</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="29">
         <f t="shared" ref="F28:I28" si="3">SUM(F26,F24,F22,F20,F18)/5</f>
         <v>0.83086000000000004</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="24">
         <f t="shared" si="3"/>
         <v>0.88450000000000006</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="29">
         <f t="shared" si="3"/>
         <v>0.90276000000000001</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="25">
         <f t="shared" si="3"/>
         <v>0.91107999999999989</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="8" t="s">
+    <row r="30" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
     </row>
-    <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E32">
+    <row r="32" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="6"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="24">
         <v>16</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="26">
         <v>64</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="24">
         <v>256</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="26">
         <v>1024</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="25">
         <v>4096</v>
       </c>
     </row>
-    <row r="33" spans="3:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="4" t="s">
+    <row r="33" spans="3:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="18">
         <v>2.0548999999999999</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="27">
         <v>2.0657999999999999</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="18">
         <v>2.0657999999999999</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="27">
         <v>2.0657000000000001</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="19">
         <v>2.0657000000000001</v>
       </c>
     </row>
-    <row r="34" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="4"/>
-      <c r="D34" s="2" t="s">
+    <row r="34" spans="3:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="2"/>
+      <c r="D34" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="18">
         <v>0.98970000000000002</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="27">
         <v>0.99709999999999999</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="18">
         <v>0.99719999999999998</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="27">
         <v>0.99719999999999998</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="19">
         <v>0.99709999999999999</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C35" s="2" t="s">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="21">
         <v>0.8881</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="28">
         <v>0.92110000000000003</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="21">
         <v>0.96550000000000002</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="28">
         <v>1.0065</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="22">
         <v>1.0387999999999999</v>
       </c>
     </row>
-    <row r="36" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
+    <row r="36" spans="3:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="6"/>
+      <c r="D36" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="24">
         <v>0.68799999999999994</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="29">
         <v>0.74399999999999999</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="24">
         <v>0.81410000000000005</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="29">
         <v>0.87339999999999995</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="25">
         <v>0.91479999999999995</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C37" s="2" t="s">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C37" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="18">
         <v>1.4999</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="27">
         <v>1.6012999999999999</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="18">
         <v>1.8089</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="27">
         <v>1.9948999999999999</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="19">
         <v>2.1006999999999998</v>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
+    <row r="38" spans="3:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="7"/>
+      <c r="D38" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="18">
         <v>0.74260000000000004</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="27">
         <v>0.79700000000000004</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="18">
         <v>0.89</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="27">
         <v>0.95569999999999999</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="19">
         <v>0.98429999999999995</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C39" s="2" t="s">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="21">
         <v>0.95699999999999996</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="28">
         <v>0.97270000000000001</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="21">
         <v>1.0055000000000001</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="28">
         <v>1.0522</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="22">
         <v>1.1093</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
+    <row r="40" spans="3:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="6"/>
+      <c r="D40" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="24">
         <v>0.69589999999999996</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="29">
         <v>0.73280000000000001</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="24">
         <v>0.7782</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="29">
         <v>0.84719999999999995</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="25">
         <v>0.92269999999999996</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C41" s="2" t="s">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="21">
         <v>1.1001000000000001</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="28">
         <v>1.2490000000000001</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="21">
         <v>1.4337</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="28">
         <v>1.5934999999999999</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="22">
         <v>1.6763999999999999</v>
       </c>
     </row>
-    <row r="42" spans="3:9" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
+    <row r="42" spans="3:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="6"/>
+      <c r="D42" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="24">
         <v>0.71389999999999998</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="29">
         <v>0.78449999999999998</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="24">
         <v>0.87250000000000005</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="29">
         <v>0.93220000000000003</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="25">
         <v>0.95650000000000002</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="2" t="s">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="18">
         <f>SUM(E33,E35,E37,E39,E41,)/5</f>
         <v>1.3</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="27">
         <f t="shared" ref="F43:I43" si="4">SUM(F33,F35,F37,F39,F41,)/5</f>
         <v>1.3619799999999997</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="18">
         <f t="shared" si="4"/>
         <v>1.4558799999999998</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="27">
         <f t="shared" si="4"/>
         <v>1.5425599999999999</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="19">
         <f t="shared" si="4"/>
         <v>1.5981799999999999</v>
       </c>
+      <c r="K43" s="45">
+        <f ca="1">+K41:K41:X43</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C44" s="7"/>
-      <c r="D44" s="2" t="s">
+    <row r="44" spans="3:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="8"/>
+      <c r="D44" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="24">
         <f>SUM(E34,E36,E38,E40,E42,)/5</f>
         <v>0.76601999999999992</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="29">
         <f t="shared" ref="F44:I44" si="5">SUM(F34,F36,F38,F40,F42,)/5</f>
         <v>0.81108000000000013</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="24">
         <f t="shared" si="5"/>
         <v>0.87040000000000006</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="29">
         <f t="shared" si="5"/>
         <v>0.92113999999999996</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="25">
         <f t="shared" si="5"/>
         <v>0.95507999999999993</v>
       </c>
     </row>
-    <row r="46" spans="3:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E46" s="8" t="s">
+    <row r="45" spans="3:11" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="3:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E47">
+    <row r="47" spans="3:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="2"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="46">
         <v>16</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="28">
         <v>64</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="21">
         <v>256</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="28">
         <v>1024</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="22">
         <v>4096</v>
       </c>
     </row>
-    <row r="48" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="5" t="s">
+    <row r="48" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="21">
         <v>2.0531999999999999</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="28">
         <v>2.0617999999999999</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="21">
         <v>2.0617999999999999</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="28">
         <v>2.0617999999999999</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="22">
         <v>2.0617999999999999</v>
       </c>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C49" s="5"/>
-      <c r="D49" s="2" t="s">
+    <row r="49" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="8"/>
+      <c r="D49" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="24">
         <v>0.9869</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="29">
         <v>0.98980000000000001</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="24">
         <v>0.98980000000000001</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="29">
         <v>0.98980000000000001</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="25">
         <v>0.98980000000000001</v>
       </c>
     </row>
     <row r="50" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="18">
         <v>0.88219999999999998</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="27">
         <v>0.91459999999999997</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="18">
         <v>0.93700000000000006</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="27">
         <v>0.96109999999999995</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="19">
         <v>0.97419999999999995</v>
       </c>
     </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C51" s="3"/>
-      <c r="D51" s="2" t="s">
+    <row r="51" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="7"/>
+      <c r="D51" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="18">
         <v>0.68840000000000001</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="27">
         <v>0.7369</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="18">
         <v>0.77610000000000001</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="27">
         <v>0.80869999999999997</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="19">
         <v>0.82899999999999996</v>
       </c>
     </row>
     <row r="52" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="21">
         <v>1.5226</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="28">
         <v>1.552</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="21">
         <v>1.6383000000000001</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="28">
         <v>1.6745000000000001</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="22">
         <v>1.6883999999999999</v>
       </c>
     </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C53" s="3"/>
-      <c r="D53" s="2" t="s">
+    <row r="53" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="6"/>
+      <c r="D53" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="24">
         <v>0.75729999999999997</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="29">
         <v>0.77459999999999996</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="24">
         <v>0.81830000000000003</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="29">
         <v>0.83520000000000005</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="25">
         <v>0.84189999999999998</v>
       </c>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="18">
         <v>0.96699999999999997</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="27">
         <v>0.97970000000000002</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="18">
         <v>0.996</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="27">
         <v>1.0142</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="19">
         <v>1.0330999999999999</v>
       </c>
     </row>
-    <row r="55" spans="3:10" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="3"/>
-      <c r="D55" s="2" t="s">
+    <row r="55" spans="3:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="7"/>
+      <c r="D55" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="18">
         <v>0.69199999999999995</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="27">
         <v>0.71960000000000002</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="18">
         <v>0.75360000000000005</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="27">
         <v>0.78890000000000005</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="19">
         <v>0.81489999999999996</v>
       </c>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="21">
         <v>1.0462</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="28">
         <v>1.0485</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="21">
         <v>1.0900000000000001</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="28">
         <v>1.1080000000000001</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="22">
         <v>1.1264000000000001</v>
       </c>
     </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C57" s="3"/>
-      <c r="D57" s="2" t="s">
+    <row r="57" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="6"/>
+      <c r="D57" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="24">
         <v>0.67300000000000004</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="29">
         <v>0.69879999999999998</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="24">
         <v>0.72319999999999995</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="29">
         <v>0.73729999999999996</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="25">
         <v>0.74629999999999996</v>
       </c>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C58" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="C58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="18">
         <f>SUM(E56,E54,E52,E50,E48)/5</f>
         <v>1.2942399999999998</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="27">
         <f t="shared" ref="F58:I58" si="6">SUM(F56,F54,F52,F50,F48)/5</f>
         <v>1.3113199999999998</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="18">
         <f t="shared" si="6"/>
         <v>1.3446200000000001</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="27">
         <f t="shared" si="6"/>
         <v>1.36392</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="19">
         <f t="shared" si="6"/>
         <v>1.3767799999999999</v>
       </c>
     </row>
-    <row r="59" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="7"/>
-      <c r="D59" s="2" t="s">
+    <row r="59" spans="3:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="8"/>
+      <c r="D59" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="24">
         <f>SUM(E57,E55,E53,E51,E49)/5</f>
         <v>0.75951999999999997</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="29">
         <f t="shared" ref="F59:I59" si="7">SUM(F57,F55,F53,F51,F49)/5</f>
         <v>0.78393999999999997</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="24">
         <f t="shared" si="7"/>
         <v>0.81220000000000003</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="29">
         <f t="shared" si="7"/>
         <v>0.83198000000000005</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="25">
         <f t="shared" si="7"/>
         <v>0.84437999999999991</v>
       </c>
     </row>
-    <row r="61" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E63" s="8" t="s">
+    <row r="61" spans="3:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="3:10" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="3:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="1"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="44"/>
+    </row>
+    <row r="64" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="8"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-    </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="E64" t="s">
+      <c r="F64" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" s="26" t="s">
         <v>18</v>
-      </c>
-      <c r="J64" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="65" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="18">
         <v>2.0573999999999999</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="27">
         <v>2.0575999999999999</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="18">
         <v>2.0575999999999999</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="27">
         <v>2.0659000000000001</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="18">
         <v>2.0659000000000001</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="27">
         <v>2.0659000000000001</v>
       </c>
     </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-      <c r="D66" s="2" t="s">
+    <row r="66" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="2"/>
+      <c r="D66" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="18">
         <v>0.98960000000000004</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="27">
         <v>0.99429999999999996</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="18">
         <v>0.99429999999999996</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="27">
         <v>0.99719999999999998</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="18">
         <v>0.99709999999999999</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="27">
         <v>0.99709999999999999</v>
       </c>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="21">
         <v>0.88380000000000003</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="28">
         <v>0.90610000000000002</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="21">
         <v>0.94530000000000003</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="28">
         <v>0.98040000000000005</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="21">
         <v>1.0058</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="28">
         <v>0.99080000000000001</v>
       </c>
     </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C68" s="3"/>
-      <c r="D68" s="2" t="s">
+    <row r="68" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="6"/>
+      <c r="D68" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="24">
         <v>0.68610000000000004</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="29">
         <v>0.72030000000000005</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="24">
         <v>0.7843</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="29">
         <v>0.83660000000000001</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="24">
         <v>0.87329999999999997</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="29">
         <v>0.85150000000000003</v>
       </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="18">
         <v>1.4622999999999999</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="27">
         <v>1.5987</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="18">
         <v>1.7305999999999999</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="27">
         <v>1.8468</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="18">
         <v>2.0038</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="27">
         <v>1.9410000000000001</v>
       </c>
     </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C70" s="3"/>
-      <c r="D70" s="2" t="s">
+    <row r="70" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="7"/>
+      <c r="D70" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="18">
         <v>0.72209999999999996</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="27">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="18">
         <v>0.86219999999999997</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="27">
         <v>0.90790000000000004</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="18">
         <v>0.95530000000000004</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="27">
         <v>0.93459999999999999</v>
       </c>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="21">
         <v>0.95130000000000003</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="28">
         <v>0.9647</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="21">
         <v>0.99409999999999998</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="28">
         <v>1.032</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="21">
         <v>1.075</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="28">
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C72" s="3"/>
-      <c r="D72" s="2" t="s">
+    <row r="72" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="6"/>
+      <c r="D72" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="24">
         <v>0.69289999999999996</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="29">
         <v>0.70899999999999996</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="24">
         <v>0.76880000000000004</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="29">
         <v>0.82320000000000004</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="24">
         <v>0.87480000000000002</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="29">
         <v>0.86499999999999999</v>
       </c>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="21">
         <v>1.2063999999999999</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="28">
         <v>1.2105999999999999</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="21">
         <v>1.3214999999999999</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="28">
         <v>1.4148000000000001</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="21">
         <v>1.4710000000000001</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="28">
         <v>1.45</v>
       </c>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C74" s="3"/>
-      <c r="D74" s="2" t="s">
+    <row r="74" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="6"/>
+      <c r="D74" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="24">
         <v>0.77</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="29">
         <v>0.77529999999999999</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="24">
         <v>0.83240000000000003</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="29">
         <v>0.87490000000000001</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="24">
         <v>0.90110000000000001</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="29">
         <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C75" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="C75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="18">
         <f>SUM(E65,E67,E69,E71,E73)/5</f>
         <v>1.3122399999999999</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="27">
         <f t="shared" ref="F75:J75" si="8">SUM(F65,F67,F69,F71,F73)/5</f>
         <v>1.34754</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="18">
         <f t="shared" si="8"/>
         <v>1.4098199999999999</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="27">
         <f t="shared" si="8"/>
         <v>1.4679800000000001</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="18">
         <f t="shared" si="8"/>
         <v>1.5243</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="27">
         <f t="shared" si="8"/>
         <v>1.5031399999999999</v>
       </c>
     </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C76" s="7"/>
-      <c r="D76" s="2" t="s">
+    <row r="76" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="8"/>
+      <c r="D76" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="24">
         <f>SUM(E66,E68,E70,E72,E74)/5</f>
         <v>0.77214000000000005</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="29">
         <f t="shared" ref="F76:J76" si="9">SUM(F66,F68,F70,F72,F74)/5</f>
         <v>0.79820000000000002</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="24">
         <f t="shared" si="9"/>
         <v>0.84840000000000004</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="29">
         <f t="shared" si="9"/>
         <v>0.88795999999999997</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="24">
         <f t="shared" si="9"/>
         <v>0.92032000000000003</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="29">
         <f t="shared" si="9"/>
         <v>0.90724000000000005</v>
       </c>
     </row>
+    <row r="78" spans="3:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="3:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="1"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" s="43"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="44"/>
+    </row>
+    <row r="80" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="8"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I80" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J80" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C81" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="18">
+        <f>$F$12</f>
+        <v>0.82510000000000017</v>
+      </c>
+      <c r="F81" s="27">
+        <f t="shared" ref="F81:J81" si="10">$F$12</f>
+        <v>0.82510000000000017</v>
+      </c>
+      <c r="G81" s="18">
+        <f t="shared" si="10"/>
+        <v>0.82510000000000017</v>
+      </c>
+      <c r="H81" s="27">
+        <f t="shared" si="10"/>
+        <v>0.82510000000000017</v>
+      </c>
+      <c r="I81" s="18">
+        <f t="shared" si="10"/>
+        <v>0.82510000000000017</v>
+      </c>
+      <c r="J81" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="10"/>
+      <c r="D82" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="18">
+        <f>$F$13</f>
+        <v>0.31789999999999996</v>
+      </c>
+      <c r="F82" s="27">
+        <f t="shared" ref="F82:J82" si="11">$F$13</f>
+        <v>0.31789999999999996</v>
+      </c>
+      <c r="G82" s="18">
+        <f t="shared" si="11"/>
+        <v>0.31789999999999996</v>
+      </c>
+      <c r="H82" s="27">
+        <f t="shared" si="11"/>
+        <v>0.31789999999999996</v>
+      </c>
+      <c r="I82" s="18">
+        <f t="shared" si="11"/>
+        <v>0.31789999999999996</v>
+      </c>
+      <c r="J82" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C83" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="21">
+        <f>$E$12</f>
+        <v>0.81540000000000001</v>
+      </c>
+      <c r="F83" s="28">
+        <f t="shared" ref="F83:J83" si="12">$E$12</f>
+        <v>0.81540000000000001</v>
+      </c>
+      <c r="G83" s="21">
+        <f t="shared" si="12"/>
+        <v>0.81540000000000001</v>
+      </c>
+      <c r="H83" s="28">
+        <f t="shared" si="12"/>
+        <v>0.81540000000000001</v>
+      </c>
+      <c r="I83" s="21">
+        <f t="shared" si="12"/>
+        <v>0.81540000000000001</v>
+      </c>
+      <c r="J83" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="12"/>
+      <c r="D84" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="24">
+        <f>$E$13</f>
+        <v>0.31789999999999996</v>
+      </c>
+      <c r="F84" s="29">
+        <f t="shared" ref="F84:J84" si="13">$E$13</f>
+        <v>0.31789999999999996</v>
+      </c>
+      <c r="G84" s="24">
+        <f t="shared" si="13"/>
+        <v>0.31789999999999996</v>
+      </c>
+      <c r="H84" s="29">
+        <f t="shared" si="13"/>
+        <v>0.31789999999999996</v>
+      </c>
+      <c r="I84" s="24">
+        <f t="shared" si="13"/>
+        <v>0.31789999999999996</v>
+      </c>
+      <c r="J84" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C85" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="18">
+        <f>$G12</f>
+        <v>1.6650800000000001</v>
+      </c>
+      <c r="F85" s="27">
+        <f t="shared" ref="F85:J85" si="14">$G12</f>
+        <v>1.6650800000000001</v>
+      </c>
+      <c r="G85" s="18">
+        <f t="shared" si="14"/>
+        <v>1.6650800000000001</v>
+      </c>
+      <c r="H85" s="27">
+        <f t="shared" si="14"/>
+        <v>1.6650800000000001</v>
+      </c>
+      <c r="I85" s="18">
+        <f t="shared" si="14"/>
+        <v>1.6650800000000001</v>
+      </c>
+      <c r="J85" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="13"/>
+      <c r="D86" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="18">
+        <f>$G13</f>
+        <v>1</v>
+      </c>
+      <c r="F86" s="27">
+        <f t="shared" ref="F86:J86" si="15">$G13</f>
+        <v>1</v>
+      </c>
+      <c r="G86" s="18">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H86" s="27">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I86" s="18">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J86" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C87" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="21">
+        <f>E27</f>
+        <v>1.28674</v>
+      </c>
+      <c r="F87" s="28">
+        <f t="shared" ref="F87:J87" si="16">F27</f>
+        <v>1.3476600000000001</v>
+      </c>
+      <c r="G87" s="21">
+        <f t="shared" si="16"/>
+        <v>1.4300799999999998</v>
+      </c>
+      <c r="H87" s="28">
+        <f t="shared" si="16"/>
+        <v>1.4432800000000001</v>
+      </c>
+      <c r="I87" s="21">
+        <f t="shared" si="16"/>
+        <v>1.4505199999999998</v>
+      </c>
+      <c r="J87" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="12"/>
+      <c r="D88" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="24">
+        <f>E28</f>
+        <v>0.77961999999999998</v>
+      </c>
+      <c r="F88" s="29">
+        <f t="shared" ref="F88:J88" si="17">F28</f>
+        <v>0.83086000000000004</v>
+      </c>
+      <c r="G88" s="24">
+        <f t="shared" si="17"/>
+        <v>0.88450000000000006</v>
+      </c>
+      <c r="H88" s="29">
+        <f t="shared" si="17"/>
+        <v>0.90276000000000001</v>
+      </c>
+      <c r="I88" s="24">
+        <f t="shared" si="17"/>
+        <v>0.91107999999999989</v>
+      </c>
+      <c r="J88" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C89" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="18">
+        <f>E43</f>
+        <v>1.3</v>
+      </c>
+      <c r="F89" s="27">
+        <f t="shared" ref="F89:J90" si="18">F43</f>
+        <v>1.3619799999999997</v>
+      </c>
+      <c r="G89" s="18">
+        <f t="shared" si="18"/>
+        <v>1.4558799999999998</v>
+      </c>
+      <c r="H89" s="27">
+        <f t="shared" si="18"/>
+        <v>1.5425599999999999</v>
+      </c>
+      <c r="I89" s="18">
+        <f t="shared" si="18"/>
+        <v>1.5981799999999999</v>
+      </c>
+      <c r="J89" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="13"/>
+      <c r="D90" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="18">
+        <f>E44</f>
+        <v>0.76601999999999992</v>
+      </c>
+      <c r="F90" s="27">
+        <f t="shared" si="18"/>
+        <v>0.81108000000000013</v>
+      </c>
+      <c r="G90" s="18">
+        <f t="shared" si="18"/>
+        <v>0.87040000000000006</v>
+      </c>
+      <c r="H90" s="27">
+        <f t="shared" si="18"/>
+        <v>0.92113999999999996</v>
+      </c>
+      <c r="I90" s="18">
+        <f t="shared" si="18"/>
+        <v>0.95507999999999993</v>
+      </c>
+      <c r="J90" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C91" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="21">
+        <f>E58</f>
+        <v>1.2942399999999998</v>
+      </c>
+      <c r="F91" s="28">
+        <f t="shared" ref="F91:J92" si="19">F58</f>
+        <v>1.3113199999999998</v>
+      </c>
+      <c r="G91" s="21">
+        <f t="shared" si="19"/>
+        <v>1.3446200000000001</v>
+      </c>
+      <c r="H91" s="28">
+        <f t="shared" si="19"/>
+        <v>1.36392</v>
+      </c>
+      <c r="I91" s="21">
+        <f t="shared" si="19"/>
+        <v>1.3767799999999999</v>
+      </c>
+      <c r="J91" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C92" s="14"/>
+      <c r="D92" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="24">
+        <f>E59</f>
+        <v>0.75951999999999997</v>
+      </c>
+      <c r="F92" s="29">
+        <f t="shared" si="19"/>
+        <v>0.78393999999999997</v>
+      </c>
+      <c r="G92" s="24">
+        <f t="shared" si="19"/>
+        <v>0.81220000000000003</v>
+      </c>
+      <c r="H92" s="29">
+        <f t="shared" si="19"/>
+        <v>0.83198000000000005</v>
+      </c>
+      <c r="I92" s="24">
+        <f t="shared" si="19"/>
+        <v>0.84437999999999991</v>
+      </c>
+      <c r="J92" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C93" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="18">
+        <f>E75</f>
+        <v>1.3122399999999999</v>
+      </c>
+      <c r="F93" s="27">
+        <f t="shared" ref="F93:J94" si="20">F75</f>
+        <v>1.34754</v>
+      </c>
+      <c r="G93" s="18">
+        <f t="shared" si="20"/>
+        <v>1.4098199999999999</v>
+      </c>
+      <c r="H93" s="27">
+        <f t="shared" si="20"/>
+        <v>1.4679800000000001</v>
+      </c>
+      <c r="I93" s="18">
+        <f t="shared" si="20"/>
+        <v>1.5243</v>
+      </c>
+      <c r="J93" s="27">
+        <f t="shared" si="20"/>
+        <v>1.5031399999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="14"/>
+      <c r="D94" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="24">
+        <f>E76</f>
+        <v>0.77214000000000005</v>
+      </c>
+      <c r="F94" s="29">
+        <f t="shared" si="20"/>
+        <v>0.79820000000000002</v>
+      </c>
+      <c r="G94" s="24">
+        <f t="shared" si="20"/>
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="H94" s="29">
+        <f t="shared" si="20"/>
+        <v>0.88795999999999997</v>
+      </c>
+      <c r="I94" s="24">
+        <f t="shared" si="20"/>
+        <v>0.92032000000000003</v>
+      </c>
+      <c r="J94" s="29">
+        <f t="shared" si="20"/>
+        <v>0.90724000000000005</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="48">
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="E79:J79"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C75:C76"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C31:I31"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E63:I63"/>
     <mergeCell ref="E46:I46"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C25:C26"/>
@@ -14491,11 +18348,6 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
